--- a/optimization_filtered_HIE_grading.xlsx
+++ b/optimization_filtered_HIE_grading.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PhysioUser\OneDrive - University College Cork\Monitor\Codes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F060CABE-0456-4473-A293-3ED76307148B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB984E56-5D52-48BD-8EB5-6ADF2CF222C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="multi" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>AUC</t>
   </si>
@@ -42,11 +42,14 @@
   <si>
     <t>n_estimator</t>
   </si>
+  <si>
+    <t>used for the paper</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -183,7 +186,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -369,6 +372,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -530,9 +539,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -887,11 +897,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G577"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H577"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD19"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -899,7 +909,7 @@
     <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -922,7 +932,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.82382716049382698</v>
       </c>
@@ -945,7 +955,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.82077160493827095</v>
       </c>
@@ -968,7 +978,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.819763374485596</v>
       </c>
@@ -991,7 +1001,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.818348765432098</v>
       </c>
@@ -1014,7 +1024,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0.81694958847736598</v>
       </c>
@@ -1037,7 +1047,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0.81639917695473196</v>
       </c>
@@ -1060,7 +1070,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0.81602880658436205</v>
       </c>
@@ -1083,7 +1093,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0.81592078189300399</v>
       </c>
@@ -1106,7 +1116,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0.81585390946502001</v>
       </c>
@@ -1129,30 +1139,33 @@
         <v>500</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="11" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
         <v>0.81539094650205701</v>
       </c>
-      <c r="B11">
-        <v>0.1</v>
-      </c>
-      <c r="C11">
-        <v>4</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C11" s="2">
+        <v>4</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1</v>
+      </c>
+      <c r="G11" s="2">
+        <v>500</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0.81418209876543202</v>
       </c>
@@ -1175,7 +1188,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0.81415123456790095</v>
       </c>
@@ -1198,7 +1211,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0.81369855967078097</v>
       </c>
@@ -1221,7 +1234,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0.81317386831275695</v>
       </c>
@@ -1244,7 +1257,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0.81306069958847704</v>
       </c>
